--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Shipment-Oustanding-Debit-Template.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/Shipment-Oustanding-Debit-Template.xlsx
@@ -30,15 +30,9 @@
     <t xml:space="preserve">Khách hàng </t>
   </si>
   <si>
-    <t>Số Tiên Cần Thanh Toán</t>
-  </si>
-  <si>
     <t xml:space="preserve">Danh Sách Lô Hàng </t>
   </si>
   <si>
-    <t xml:space="preserve">Tiên Tệ </t>
-  </si>
-  <si>
     <t>{Stt}</t>
   </si>
   <si>
@@ -70,25 +64,25 @@
   </si>
   <si>
     <t>{HblNoDt}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiền Tệ </t>
+  </si>
+  <si>
+    <t>Số Tiền Cần Thanh Toán</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -99,12 +93,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -218,10 +206,37 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -229,33 +244,6 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,14 +551,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -579,48 +567,48 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
